--- a/src/main/resources/dataSheets/testResults_1.xlsx
+++ b/src/main/resources/dataSheets/testResults_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="261">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -651,6 +651,150 @@
   </si>
   <si>
     <t>2016-06-08 10:44:45</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp14\Documents\dlp-automation\test-output\screenshots\2016-06-08-14-01-45-788-AEST.png</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>2016-06-08:04-01-29</t>
+  </si>
+  <si>
+    <t>1465358489987</t>
+  </si>
+  <si>
+    <t>2016-06-08 14:01:45</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp14\Documents\dlp-automation\test-output\screenshots\2016-06-08-14-01-55-726-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-08 14:01:55</t>
+  </si>
+  <si>
+    <t>Samsung-Galaxy S7-Generic</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp14\Documents\dlp-automation\test-output\screenshots\2016-06-08-14-02-19-155-AEST.png</t>
+  </si>
+  <si>
+    <t>9886273451594B3147</t>
+  </si>
+  <si>
+    <t>ac:5f:3e:66:14:86</t>
+  </si>
+  <si>
+    <t>Samsung-Galaxy S7</t>
+  </si>
+  <si>
+    <t>SYD-L15O2-14/VIRTUAL/02</t>
+  </si>
+  <si>
+    <t>6.0.1</t>
+  </si>
+  <si>
+    <t>Galaxy S7</t>
+  </si>
+  <si>
+    <t>heroltexx-user 6.0.1 MMB29K G930FXXU1APAW release-keys</t>
+  </si>
+  <si>
+    <t>17.02.2015</t>
+  </si>
+  <si>
+    <t>2016-06-08:04-02-06</t>
+  </si>
+  <si>
+    <t>1465358526029</t>
+  </si>
+  <si>
+    <t>2016-06-08 14:02:19</t>
+  </si>
+  <si>
+    <t>358810072242456</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp14\Documents\dlp-automation\test-output\screenshots\2016-06-08-14-02-25-090-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-08 14:02:25</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp14\Documents\dlp-automation\test-output\screenshots\2016-06-09-11-29-30-279-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-09:01-29-21</t>
+  </si>
+  <si>
+    <t>1465435761362</t>
+  </si>
+  <si>
+    <t>2016-06-09 11:29:30</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp14\Documents\dlp-automation\test-output\screenshots\2016-06-09-11-29-36-034-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-09 11:29:36</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp14\Documents\dlp-automation\test-output\screenshots\2016-06-09-11-30-09-851-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-09:01-29-45</t>
+  </si>
+  <si>
+    <t>1465435785660</t>
+  </si>
+  <si>
+    <t>2016-06-09 11:30:09</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp14\Documents\dlp-automation\test-output\screenshots\2016-06-09-11-30-26-645-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-09 11:30:26</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp14\Documents\dlp-automation\test-output\screenshots\2016-06-09-11-36-38-674-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-09:01-36-30</t>
+  </si>
+  <si>
+    <t>1465436190494</t>
+  </si>
+  <si>
+    <t>2016-06-09 11:36:38</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp14\Documents\dlp-automation\test-output\screenshots\2016-06-09-11-36-42-789-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-09 11:36:42</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp14\Documents\dlp-automation\test-output\screenshots\2016-06-09-11-37-15-180-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-09:01-36-52</t>
+  </si>
+  <si>
+    <t>1465436212039</t>
+  </si>
+  <si>
+    <t>2016-06-09 11:37:15</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp14\Documents\dlp-automation\test-output\screenshots\2016-06-09-11-37-31-101-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-09 11:37:31</t>
   </si>
 </sst>
 </file>
@@ -5018,6 +5162,1572 @@
         <v>102</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" t="s">
+        <v>93</v>
+      </c>
+      <c r="K34" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" t="s">
+        <v>133</v>
+      </c>
+      <c r="N34" t="s">
+        <v>57</v>
+      </c>
+      <c r="O34" t="s">
+        <v>134</v>
+      </c>
+      <c r="P34" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>214</v>
+      </c>
+      <c r="R34" t="s">
+        <v>61</v>
+      </c>
+      <c r="S34" t="s">
+        <v>57</v>
+      </c>
+      <c r="T34" t="s">
+        <v>135</v>
+      </c>
+      <c r="U34" t="s">
+        <v>63</v>
+      </c>
+      <c r="V34" t="s">
+        <v>134</v>
+      </c>
+      <c r="W34" t="s">
+        <v>65</v>
+      </c>
+      <c r="X34" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" t="s">
+        <v>93</v>
+      </c>
+      <c r="K35" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" t="s">
+        <v>133</v>
+      </c>
+      <c r="N35" t="s">
+        <v>57</v>
+      </c>
+      <c r="O35" t="s">
+        <v>134</v>
+      </c>
+      <c r="P35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>214</v>
+      </c>
+      <c r="R35" t="s">
+        <v>61</v>
+      </c>
+      <c r="S35" t="s">
+        <v>57</v>
+      </c>
+      <c r="T35" t="s">
+        <v>135</v>
+      </c>
+      <c r="U35" t="s">
+        <v>63</v>
+      </c>
+      <c r="V35" t="s">
+        <v>134</v>
+      </c>
+      <c r="W35" t="s">
+        <v>65</v>
+      </c>
+      <c r="X35" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" t="s">
+        <v>223</v>
+      </c>
+      <c r="I36" t="s">
+        <v>224</v>
+      </c>
+      <c r="J36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36" t="s">
+        <v>225</v>
+      </c>
+      <c r="L36" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" t="s">
+        <v>226</v>
+      </c>
+      <c r="N36" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" t="s">
+        <v>227</v>
+      </c>
+      <c r="P36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>214</v>
+      </c>
+      <c r="R36" t="s">
+        <v>61</v>
+      </c>
+      <c r="S36" t="s">
+        <v>57</v>
+      </c>
+      <c r="T36" t="s">
+        <v>228</v>
+      </c>
+      <c r="U36" t="s">
+        <v>63</v>
+      </c>
+      <c r="V36" t="s">
+        <v>229</v>
+      </c>
+      <c r="W36" t="s">
+        <v>65</v>
+      </c>
+      <c r="X36" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" t="s">
+        <v>223</v>
+      </c>
+      <c r="I37" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" t="s">
+        <v>225</v>
+      </c>
+      <c r="L37" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" t="s">
+        <v>226</v>
+      </c>
+      <c r="N37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O37" t="s">
+        <v>227</v>
+      </c>
+      <c r="P37" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>214</v>
+      </c>
+      <c r="R37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S37" t="s">
+        <v>57</v>
+      </c>
+      <c r="T37" t="s">
+        <v>228</v>
+      </c>
+      <c r="U37" t="s">
+        <v>63</v>
+      </c>
+      <c r="V37" t="s">
+        <v>229</v>
+      </c>
+      <c r="W37" t="s">
+        <v>65</v>
+      </c>
+      <c r="X37" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I38" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" t="s">
+        <v>93</v>
+      </c>
+      <c r="K38" t="s">
+        <v>94</v>
+      </c>
+      <c r="L38" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N38" t="s">
+        <v>57</v>
+      </c>
+      <c r="O38" t="s">
+        <v>96</v>
+      </c>
+      <c r="P38" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>60</v>
+      </c>
+      <c r="R38" t="s">
+        <v>61</v>
+      </c>
+      <c r="S38" t="s">
+        <v>57</v>
+      </c>
+      <c r="T38" t="s">
+        <v>97</v>
+      </c>
+      <c r="U38" t="s">
+        <v>63</v>
+      </c>
+      <c r="V38" t="s">
+        <v>96</v>
+      </c>
+      <c r="W38" t="s">
+        <v>65</v>
+      </c>
+      <c r="X38" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>237</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K39" t="s">
+        <v>94</v>
+      </c>
+      <c r="L39" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" t="s">
+        <v>95</v>
+      </c>
+      <c r="N39" t="s">
+        <v>57</v>
+      </c>
+      <c r="O39" t="s">
+        <v>96</v>
+      </c>
+      <c r="P39" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>60</v>
+      </c>
+      <c r="R39" t="s">
+        <v>61</v>
+      </c>
+      <c r="S39" t="s">
+        <v>57</v>
+      </c>
+      <c r="T39" t="s">
+        <v>97</v>
+      </c>
+      <c r="U39" t="s">
+        <v>63</v>
+      </c>
+      <c r="V39" t="s">
+        <v>96</v>
+      </c>
+      <c r="W39" t="s">
+        <v>65</v>
+      </c>
+      <c r="X39" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" t="s">
+        <v>57</v>
+      </c>
+      <c r="O40" t="s">
+        <v>58</v>
+      </c>
+      <c r="P40" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>60</v>
+      </c>
+      <c r="R40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S40" t="s">
+        <v>57</v>
+      </c>
+      <c r="T40" t="s">
+        <v>62</v>
+      </c>
+      <c r="U40" t="s">
+        <v>63</v>
+      </c>
+      <c r="V40" t="s">
+        <v>64</v>
+      </c>
+      <c r="W40" t="s">
+        <v>65</v>
+      </c>
+      <c r="X40" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" t="s">
+        <v>57</v>
+      </c>
+      <c r="O41" t="s">
+        <v>58</v>
+      </c>
+      <c r="P41" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>60</v>
+      </c>
+      <c r="R41" t="s">
+        <v>61</v>
+      </c>
+      <c r="S41" t="s">
+        <v>57</v>
+      </c>
+      <c r="T41" t="s">
+        <v>62</v>
+      </c>
+      <c r="U41" t="s">
+        <v>63</v>
+      </c>
+      <c r="V41" t="s">
+        <v>64</v>
+      </c>
+      <c r="W41" t="s">
+        <v>65</v>
+      </c>
+      <c r="X41" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" t="s">
+        <v>151</v>
+      </c>
+      <c r="I42" t="s">
+        <v>153</v>
+      </c>
+      <c r="J42" t="s">
+        <v>93</v>
+      </c>
+      <c r="K42" t="s">
+        <v>154</v>
+      </c>
+      <c r="L42" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" t="s">
+        <v>155</v>
+      </c>
+      <c r="N42" t="s">
+        <v>57</v>
+      </c>
+      <c r="O42" t="s">
+        <v>156</v>
+      </c>
+      <c r="P42" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>60</v>
+      </c>
+      <c r="R42" t="s">
+        <v>61</v>
+      </c>
+      <c r="S42" t="s">
+        <v>57</v>
+      </c>
+      <c r="T42" t="s">
+        <v>157</v>
+      </c>
+      <c r="U42" t="s">
+        <v>63</v>
+      </c>
+      <c r="V42" t="s">
+        <v>156</v>
+      </c>
+      <c r="W42" t="s">
+        <v>65</v>
+      </c>
+      <c r="X42" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I43" t="s">
+        <v>153</v>
+      </c>
+      <c r="J43" t="s">
+        <v>93</v>
+      </c>
+      <c r="K43" t="s">
+        <v>154</v>
+      </c>
+      <c r="L43" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" t="s">
+        <v>155</v>
+      </c>
+      <c r="N43" t="s">
+        <v>57</v>
+      </c>
+      <c r="O43" t="s">
+        <v>156</v>
+      </c>
+      <c r="P43" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>60</v>
+      </c>
+      <c r="R43" t="s">
+        <v>61</v>
+      </c>
+      <c r="S43" t="s">
+        <v>57</v>
+      </c>
+      <c r="T43" t="s">
+        <v>157</v>
+      </c>
+      <c r="U43" t="s">
+        <v>63</v>
+      </c>
+      <c r="V43" t="s">
+        <v>156</v>
+      </c>
+      <c r="W43" t="s">
+        <v>65</v>
+      </c>
+      <c r="X43" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44" t="s">
+        <v>54</v>
+      </c>
+      <c r="L44" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44" t="s">
+        <v>57</v>
+      </c>
+      <c r="O44" t="s">
+        <v>58</v>
+      </c>
+      <c r="P44" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>60</v>
+      </c>
+      <c r="R44" t="s">
+        <v>61</v>
+      </c>
+      <c r="S44" t="s">
+        <v>57</v>
+      </c>
+      <c r="T44" t="s">
+        <v>62</v>
+      </c>
+      <c r="U44" t="s">
+        <v>63</v>
+      </c>
+      <c r="V44" t="s">
+        <v>64</v>
+      </c>
+      <c r="W44" t="s">
+        <v>65</v>
+      </c>
+      <c r="X44" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" t="s">
+        <v>53</v>
+      </c>
+      <c r="K45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L45" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" t="s">
+        <v>56</v>
+      </c>
+      <c r="N45" t="s">
+        <v>57</v>
+      </c>
+      <c r="O45" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>60</v>
+      </c>
+      <c r="R45" t="s">
+        <v>61</v>
+      </c>
+      <c r="S45" t="s">
+        <v>57</v>
+      </c>
+      <c r="T45" t="s">
+        <v>62</v>
+      </c>
+      <c r="U45" t="s">
+        <v>63</v>
+      </c>
+      <c r="V45" t="s">
+        <v>64</v>
+      </c>
+      <c r="W45" t="s">
+        <v>65</v>
+      </c>
+      <c r="X45" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AP2" r:id="rId1"/>
@@ -5052,6 +6762,18 @@
     <hyperlink ref="AP31" r:id="rId30"/>
     <hyperlink ref="AP32" r:id="rId31"/>
     <hyperlink ref="AP33" r:id="rId32"/>
+    <hyperlink ref="AP34" r:id="rId33"/>
+    <hyperlink ref="AP35" r:id="rId34"/>
+    <hyperlink ref="AP36" r:id="rId35"/>
+    <hyperlink ref="AP37" r:id="rId36"/>
+    <hyperlink ref="AP38" r:id="rId37"/>
+    <hyperlink ref="AP39" r:id="rId38"/>
+    <hyperlink ref="AP40" r:id="rId39"/>
+    <hyperlink ref="AP41" r:id="rId40"/>
+    <hyperlink ref="AP42" r:id="rId41"/>
+    <hyperlink ref="AP43" r:id="rId42"/>
+    <hyperlink ref="AP44" r:id="rId43"/>
+    <hyperlink ref="AP45" r:id="rId44"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/dataSheets/testResults_1.xlsx
+++ b/src/main/resources/dataSheets/testResults_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="273">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -795,6 +795,42 @@
   </si>
   <si>
     <t>2016-06-09 11:37:31</t>
+  </si>
+  <si>
+    <t>Samsung-Galaxy S7 Edge-Generic</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp13\Documents\dlp-automation\test-output\screenshots\2016-06-09-11-47-57-558-AEST.png</t>
+  </si>
+  <si>
+    <t>9886783859324B4D38</t>
+  </si>
+  <si>
+    <t>ac:5f:3e:2b:3d:eb</t>
+  </si>
+  <si>
+    <t>Samsung-Galaxy S7 Edge</t>
+  </si>
+  <si>
+    <t>SYD-L15O2-13/VIRTUAL/02</t>
+  </si>
+  <si>
+    <t>Galaxy S7 Edge</t>
+  </si>
+  <si>
+    <t>hero2ltexx-user 6.0.1 MMB29K G935FXXU1APC8 release-keys</t>
+  </si>
+  <si>
+    <t>2016-06-09:01-47-45</t>
+  </si>
+  <si>
+    <t>1465436865486</t>
+  </si>
+  <si>
+    <t>2016-06-09 11:47:57</t>
+  </si>
+  <si>
+    <t>358809079259935</t>
   </si>
 </sst>
 </file>
@@ -6728,6 +6764,134 @@
         <v>259</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" t="s">
+        <v>263</v>
+      </c>
+      <c r="I46" t="s">
+        <v>264</v>
+      </c>
+      <c r="J46" t="s">
+        <v>53</v>
+      </c>
+      <c r="K46" t="s">
+        <v>265</v>
+      </c>
+      <c r="L46" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" t="s">
+        <v>266</v>
+      </c>
+      <c r="N46" t="s">
+        <v>57</v>
+      </c>
+      <c r="O46" t="s">
+        <v>227</v>
+      </c>
+      <c r="P46" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>60</v>
+      </c>
+      <c r="R46" t="s">
+        <v>61</v>
+      </c>
+      <c r="S46" t="s">
+        <v>57</v>
+      </c>
+      <c r="T46" t="s">
+        <v>267</v>
+      </c>
+      <c r="U46" t="s">
+        <v>63</v>
+      </c>
+      <c r="V46" t="s">
+        <v>268</v>
+      </c>
+      <c r="W46" t="s">
+        <v>65</v>
+      </c>
+      <c r="X46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AP2" r:id="rId1"/>
@@ -6774,6 +6938,7 @@
     <hyperlink ref="AP43" r:id="rId42"/>
     <hyperlink ref="AP44" r:id="rId43"/>
     <hyperlink ref="AP45" r:id="rId44"/>
+    <hyperlink ref="AP46" r:id="rId45"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/dataSheets/testResults_1.xlsx
+++ b/src/main/resources/dataSheets/testResults_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="322">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -831,6 +831,153 @@
   </si>
   <si>
     <t>358809079259935</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp13\Documents\dlp-automation\test-output\screenshots\2016-06-18-17-47-03-261-AEST.png</t>
+  </si>
+  <si>
+    <t>deepthi.singh@avocadoconsulting.com.au</t>
+  </si>
+  <si>
+    <t>2016-06-18:07-46-09</t>
+  </si>
+  <si>
+    <t>1466235969344</t>
+  </si>
+  <si>
+    <t>2016-06-18 17:47:03</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp13\Documents\dlp-automation\test-output\screenshots\2016-06-18-23-08-21-482-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-18:13-06-06</t>
+  </si>
+  <si>
+    <t>1466255166862</t>
+  </si>
+  <si>
+    <t>2016-06-18 23:08:21</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp13\Documents\dlp-automation\test-output\screenshots\2016-06-18-23-16-12-224-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-18:13-14-00</t>
+  </si>
+  <si>
+    <t>1466255640857</t>
+  </si>
+  <si>
+    <t>2016-06-18 23:16:12</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp13\Documents\dlp-automation\test-output\screenshots\2016-06-18-23-23-29-263-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-18:13-22-18</t>
+  </si>
+  <si>
+    <t>1466256138265</t>
+  </si>
+  <si>
+    <t>2016-06-18 23:23:29</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp13\Documents\dlp-automation\test-output\screenshots\2016-06-18-23-32-12-032-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-18:13-31-05</t>
+  </si>
+  <si>
+    <t>1466256665166</t>
+  </si>
+  <si>
+    <t>2016-06-18 23:32:12</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp13\Documents\dlp-automation\test-output\screenshots\2016-06-18-23-52-29-841-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-18:13-51-44</t>
+  </si>
+  <si>
+    <t>1466257904486</t>
+  </si>
+  <si>
+    <t>2016-06-18 23:52:29</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp13\Documents\dlp-automation\test-output\screenshots\2016-06-19-00-04-03-559-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-18:14-03-20</t>
+  </si>
+  <si>
+    <t>1466258600156</t>
+  </si>
+  <si>
+    <t>2016-06-19 00:04:03</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp13\Documents\dlp-automation\test-output\screenshots\2016-06-19-00-20-53-327-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-18:14-17-32</t>
+  </si>
+  <si>
+    <t>1466259452399</t>
+  </si>
+  <si>
+    <t>2016-06-19 00:20:53</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp13\Documents\dlp-automation\test-output\screenshots\2016-06-19-00-41-19-501-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-18:14-39-05</t>
+  </si>
+  <si>
+    <t>1466260745893</t>
+  </si>
+  <si>
+    <t>2016-06-19 00:41:19</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp13\Documents\dlp-automation\test-output\screenshots\2016-06-19-01-12-41-922-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-18:15-11-10</t>
+  </si>
+  <si>
+    <t>1466262670864</t>
+  </si>
+  <si>
+    <t>2016-06-19 01:12:41</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp13\Documents\dlp-automation\test-output\screenshots\2016-06-19-01-19-01-683-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-18:15-17-54</t>
+  </si>
+  <si>
+    <t>1466263074820</t>
+  </si>
+  <si>
+    <t>2016-06-19 01:19:01</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp13\Documents\dlp-automation\test-output\screenshots\2016-06-19-09-13-05-253-AEST.png</t>
+  </si>
+  <si>
+    <t>2016-06-18:23-12-03</t>
+  </si>
+  <si>
+    <t>1466291523651</t>
+  </si>
+  <si>
+    <t>2016-06-19 09:13:05</t>
   </si>
 </sst>
 </file>
@@ -6892,6 +7039,1542 @@
         <v>262</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" t="s">
+        <v>223</v>
+      </c>
+      <c r="I47" t="s">
+        <v>224</v>
+      </c>
+      <c r="J47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47" t="s">
+        <v>225</v>
+      </c>
+      <c r="L47" t="s">
+        <v>55</v>
+      </c>
+      <c r="M47" t="s">
+        <v>226</v>
+      </c>
+      <c r="N47" t="s">
+        <v>274</v>
+      </c>
+      <c r="O47" t="s">
+        <v>227</v>
+      </c>
+      <c r="P47" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>214</v>
+      </c>
+      <c r="R47" t="s">
+        <v>61</v>
+      </c>
+      <c r="S47" t="s">
+        <v>274</v>
+      </c>
+      <c r="T47" t="s">
+        <v>228</v>
+      </c>
+      <c r="U47" t="s">
+        <v>63</v>
+      </c>
+      <c r="V47" t="s">
+        <v>229</v>
+      </c>
+      <c r="W47" t="s">
+        <v>65</v>
+      </c>
+      <c r="X47" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" t="s">
+        <v>223</v>
+      </c>
+      <c r="I48" t="s">
+        <v>224</v>
+      </c>
+      <c r="J48" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" t="s">
+        <v>225</v>
+      </c>
+      <c r="L48" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" t="s">
+        <v>226</v>
+      </c>
+      <c r="N48" t="s">
+        <v>274</v>
+      </c>
+      <c r="O48" t="s">
+        <v>227</v>
+      </c>
+      <c r="P48" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>214</v>
+      </c>
+      <c r="R48" t="s">
+        <v>61</v>
+      </c>
+      <c r="S48" t="s">
+        <v>274</v>
+      </c>
+      <c r="T48" t="s">
+        <v>228</v>
+      </c>
+      <c r="U48" t="s">
+        <v>63</v>
+      </c>
+      <c r="V48" t="s">
+        <v>229</v>
+      </c>
+      <c r="W48" t="s">
+        <v>65</v>
+      </c>
+      <c r="X48" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" t="s">
+        <v>223</v>
+      </c>
+      <c r="I49" t="s">
+        <v>224</v>
+      </c>
+      <c r="J49" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" t="s">
+        <v>225</v>
+      </c>
+      <c r="L49" t="s">
+        <v>55</v>
+      </c>
+      <c r="M49" t="s">
+        <v>226</v>
+      </c>
+      <c r="N49" t="s">
+        <v>274</v>
+      </c>
+      <c r="O49" t="s">
+        <v>227</v>
+      </c>
+      <c r="P49" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>214</v>
+      </c>
+      <c r="R49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S49" t="s">
+        <v>274</v>
+      </c>
+      <c r="T49" t="s">
+        <v>228</v>
+      </c>
+      <c r="U49" t="s">
+        <v>63</v>
+      </c>
+      <c r="V49" t="s">
+        <v>229</v>
+      </c>
+      <c r="W49" t="s">
+        <v>65</v>
+      </c>
+      <c r="X49" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>285</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" t="s">
+        <v>223</v>
+      </c>
+      <c r="I50" t="s">
+        <v>224</v>
+      </c>
+      <c r="J50" t="s">
+        <v>53</v>
+      </c>
+      <c r="K50" t="s">
+        <v>225</v>
+      </c>
+      <c r="L50" t="s">
+        <v>55</v>
+      </c>
+      <c r="M50" t="s">
+        <v>226</v>
+      </c>
+      <c r="N50" t="s">
+        <v>274</v>
+      </c>
+      <c r="O50" t="s">
+        <v>227</v>
+      </c>
+      <c r="P50" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>214</v>
+      </c>
+      <c r="R50" t="s">
+        <v>61</v>
+      </c>
+      <c r="S50" t="s">
+        <v>274</v>
+      </c>
+      <c r="T50" t="s">
+        <v>228</v>
+      </c>
+      <c r="U50" t="s">
+        <v>63</v>
+      </c>
+      <c r="V50" t="s">
+        <v>229</v>
+      </c>
+      <c r="W50" t="s">
+        <v>65</v>
+      </c>
+      <c r="X50" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>289</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" t="s">
+        <v>223</v>
+      </c>
+      <c r="I51" t="s">
+        <v>224</v>
+      </c>
+      <c r="J51" t="s">
+        <v>53</v>
+      </c>
+      <c r="K51" t="s">
+        <v>225</v>
+      </c>
+      <c r="L51" t="s">
+        <v>55</v>
+      </c>
+      <c r="M51" t="s">
+        <v>226</v>
+      </c>
+      <c r="N51" t="s">
+        <v>274</v>
+      </c>
+      <c r="O51" t="s">
+        <v>227</v>
+      </c>
+      <c r="P51" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>214</v>
+      </c>
+      <c r="R51" t="s">
+        <v>61</v>
+      </c>
+      <c r="S51" t="s">
+        <v>274</v>
+      </c>
+      <c r="T51" t="s">
+        <v>228</v>
+      </c>
+      <c r="U51" t="s">
+        <v>63</v>
+      </c>
+      <c r="V51" t="s">
+        <v>229</v>
+      </c>
+      <c r="W51" t="s">
+        <v>65</v>
+      </c>
+      <c r="X51" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s">
+        <v>223</v>
+      </c>
+      <c r="I52" t="s">
+        <v>224</v>
+      </c>
+      <c r="J52" t="s">
+        <v>53</v>
+      </c>
+      <c r="K52" t="s">
+        <v>225</v>
+      </c>
+      <c r="L52" t="s">
+        <v>55</v>
+      </c>
+      <c r="M52" t="s">
+        <v>226</v>
+      </c>
+      <c r="N52" t="s">
+        <v>274</v>
+      </c>
+      <c r="O52" t="s">
+        <v>227</v>
+      </c>
+      <c r="P52" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>214</v>
+      </c>
+      <c r="R52" t="s">
+        <v>61</v>
+      </c>
+      <c r="S52" t="s">
+        <v>274</v>
+      </c>
+      <c r="T52" t="s">
+        <v>228</v>
+      </c>
+      <c r="U52" t="s">
+        <v>63</v>
+      </c>
+      <c r="V52" t="s">
+        <v>229</v>
+      </c>
+      <c r="W52" t="s">
+        <v>65</v>
+      </c>
+      <c r="X52" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" t="s">
+        <v>223</v>
+      </c>
+      <c r="I53" t="s">
+        <v>224</v>
+      </c>
+      <c r="J53" t="s">
+        <v>53</v>
+      </c>
+      <c r="K53" t="s">
+        <v>225</v>
+      </c>
+      <c r="L53" t="s">
+        <v>55</v>
+      </c>
+      <c r="M53" t="s">
+        <v>226</v>
+      </c>
+      <c r="N53" t="s">
+        <v>274</v>
+      </c>
+      <c r="O53" t="s">
+        <v>227</v>
+      </c>
+      <c r="P53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>214</v>
+      </c>
+      <c r="R53" t="s">
+        <v>61</v>
+      </c>
+      <c r="S53" t="s">
+        <v>274</v>
+      </c>
+      <c r="T53" t="s">
+        <v>228</v>
+      </c>
+      <c r="U53" t="s">
+        <v>63</v>
+      </c>
+      <c r="V53" t="s">
+        <v>229</v>
+      </c>
+      <c r="W53" t="s">
+        <v>65</v>
+      </c>
+      <c r="X53" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" t="s">
+        <v>223</v>
+      </c>
+      <c r="I54" t="s">
+        <v>224</v>
+      </c>
+      <c r="J54" t="s">
+        <v>53</v>
+      </c>
+      <c r="K54" t="s">
+        <v>225</v>
+      </c>
+      <c r="L54" t="s">
+        <v>55</v>
+      </c>
+      <c r="M54" t="s">
+        <v>226</v>
+      </c>
+      <c r="N54" t="s">
+        <v>274</v>
+      </c>
+      <c r="O54" t="s">
+        <v>227</v>
+      </c>
+      <c r="P54" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>214</v>
+      </c>
+      <c r="R54" t="s">
+        <v>61</v>
+      </c>
+      <c r="S54" t="s">
+        <v>274</v>
+      </c>
+      <c r="T54" t="s">
+        <v>228</v>
+      </c>
+      <c r="U54" t="s">
+        <v>63</v>
+      </c>
+      <c r="V54" t="s">
+        <v>229</v>
+      </c>
+      <c r="W54" t="s">
+        <v>65</v>
+      </c>
+      <c r="X54" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" t="s">
+        <v>223</v>
+      </c>
+      <c r="I55" t="s">
+        <v>224</v>
+      </c>
+      <c r="J55" t="s">
+        <v>53</v>
+      </c>
+      <c r="K55" t="s">
+        <v>225</v>
+      </c>
+      <c r="L55" t="s">
+        <v>55</v>
+      </c>
+      <c r="M55" t="s">
+        <v>226</v>
+      </c>
+      <c r="N55" t="s">
+        <v>274</v>
+      </c>
+      <c r="O55" t="s">
+        <v>227</v>
+      </c>
+      <c r="P55" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>214</v>
+      </c>
+      <c r="R55" t="s">
+        <v>61</v>
+      </c>
+      <c r="S55" t="s">
+        <v>274</v>
+      </c>
+      <c r="T55" t="s">
+        <v>228</v>
+      </c>
+      <c r="U55" t="s">
+        <v>63</v>
+      </c>
+      <c r="V55" t="s">
+        <v>229</v>
+      </c>
+      <c r="W55" t="s">
+        <v>65</v>
+      </c>
+      <c r="X55" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" t="s">
+        <v>223</v>
+      </c>
+      <c r="I56" t="s">
+        <v>224</v>
+      </c>
+      <c r="J56" t="s">
+        <v>53</v>
+      </c>
+      <c r="K56" t="s">
+        <v>225</v>
+      </c>
+      <c r="L56" t="s">
+        <v>55</v>
+      </c>
+      <c r="M56" t="s">
+        <v>226</v>
+      </c>
+      <c r="N56" t="s">
+        <v>274</v>
+      </c>
+      <c r="O56" t="s">
+        <v>227</v>
+      </c>
+      <c r="P56" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>214</v>
+      </c>
+      <c r="R56" t="s">
+        <v>61</v>
+      </c>
+      <c r="S56" t="s">
+        <v>274</v>
+      </c>
+      <c r="T56" t="s">
+        <v>228</v>
+      </c>
+      <c r="U56" t="s">
+        <v>63</v>
+      </c>
+      <c r="V56" t="s">
+        <v>229</v>
+      </c>
+      <c r="W56" t="s">
+        <v>65</v>
+      </c>
+      <c r="X56" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" t="s">
+        <v>223</v>
+      </c>
+      <c r="I57" t="s">
+        <v>224</v>
+      </c>
+      <c r="J57" t="s">
+        <v>53</v>
+      </c>
+      <c r="K57" t="s">
+        <v>225</v>
+      </c>
+      <c r="L57" t="s">
+        <v>55</v>
+      </c>
+      <c r="M57" t="s">
+        <v>226</v>
+      </c>
+      <c r="N57" t="s">
+        <v>274</v>
+      </c>
+      <c r="O57" t="s">
+        <v>227</v>
+      </c>
+      <c r="P57" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>214</v>
+      </c>
+      <c r="R57" t="s">
+        <v>61</v>
+      </c>
+      <c r="S57" t="s">
+        <v>274</v>
+      </c>
+      <c r="T57" t="s">
+        <v>228</v>
+      </c>
+      <c r="U57" t="s">
+        <v>63</v>
+      </c>
+      <c r="V57" t="s">
+        <v>229</v>
+      </c>
+      <c r="W57" t="s">
+        <v>65</v>
+      </c>
+      <c r="X57" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>317</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" t="s">
+        <v>50</v>
+      </c>
+      <c r="H58" t="s">
+        <v>223</v>
+      </c>
+      <c r="I58" t="s">
+        <v>224</v>
+      </c>
+      <c r="J58" t="s">
+        <v>53</v>
+      </c>
+      <c r="K58" t="s">
+        <v>225</v>
+      </c>
+      <c r="L58" t="s">
+        <v>55</v>
+      </c>
+      <c r="M58" t="s">
+        <v>226</v>
+      </c>
+      <c r="N58" t="s">
+        <v>274</v>
+      </c>
+      <c r="O58" t="s">
+        <v>227</v>
+      </c>
+      <c r="P58" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>214</v>
+      </c>
+      <c r="R58" t="s">
+        <v>61</v>
+      </c>
+      <c r="S58" t="s">
+        <v>274</v>
+      </c>
+      <c r="T58" t="s">
+        <v>228</v>
+      </c>
+      <c r="U58" t="s">
+        <v>63</v>
+      </c>
+      <c r="V58" t="s">
+        <v>229</v>
+      </c>
+      <c r="W58" t="s">
+        <v>65</v>
+      </c>
+      <c r="X58" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>319</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AP2" r:id="rId1"/>
@@ -6939,6 +8622,18 @@
     <hyperlink ref="AP44" r:id="rId43"/>
     <hyperlink ref="AP45" r:id="rId44"/>
     <hyperlink ref="AP46" r:id="rId45"/>
+    <hyperlink ref="AP47" r:id="rId46"/>
+    <hyperlink ref="AP48" r:id="rId47"/>
+    <hyperlink ref="AP49" r:id="rId48"/>
+    <hyperlink ref="AP50" r:id="rId49"/>
+    <hyperlink ref="AP51" r:id="rId50"/>
+    <hyperlink ref="AP52" r:id="rId51"/>
+    <hyperlink ref="AP53" r:id="rId52"/>
+    <hyperlink ref="AP54" r:id="rId53"/>
+    <hyperlink ref="AP55" r:id="rId54"/>
+    <hyperlink ref="AP56" r:id="rId55"/>
+    <hyperlink ref="AP57" r:id="rId56"/>
+    <hyperlink ref="AP58" r:id="rId57"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/dataSheets/testResults_1.xlsx
+++ b/src/main/resources/dataSheets/testResults_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="228">
   <si>
     <t>template</t>
   </si>
@@ -688,6 +688,21 @@
   </si>
   <si>
     <t>2016-08-17 14:14:52</t>
+  </si>
+  <si>
+    <t>C:\Users\AvoComp13\Documents\dlp-automation\test-output\screenshots\2016-09-07-11-26-33-289-AEST.png</t>
+  </si>
+  <si>
+    <t>BrowserTest</t>
+  </si>
+  <si>
+    <t>2016-09-07:01-25-19</t>
+  </si>
+  <si>
+    <t>1473211519267</t>
+  </si>
+  <si>
+    <t>2016-09-07 11:26:33</t>
   </si>
 </sst>
 </file>
@@ -5665,6 +5680,134 @@
         <v>219</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" t="s">
+        <v>54</v>
+      </c>
+      <c r="J37" t="s">
+        <v>55</v>
+      </c>
+      <c r="K37" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M37" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" t="s">
+        <v>59</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>62</v>
+      </c>
+      <c r="R37" t="s">
+        <v>63</v>
+      </c>
+      <c r="S37" t="s">
+        <v>59</v>
+      </c>
+      <c r="T37" t="s">
+        <v>64</v>
+      </c>
+      <c r="U37" t="s">
+        <v>65</v>
+      </c>
+      <c r="V37" t="s">
+        <v>66</v>
+      </c>
+      <c r="W37" t="s">
+        <v>224</v>
+      </c>
+      <c r="X37" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AP2" r:id="rId1"/>
@@ -5702,6 +5845,7 @@
     <hyperlink ref="AP34" r:id="rId33"/>
     <hyperlink ref="AP35" r:id="rId34"/>
     <hyperlink ref="AP36" r:id="rId35"/>
+    <hyperlink ref="AP37" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
